--- a/data/trans_orig/P34A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17206</v>
+        <v>17063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37738</v>
+        <v>36742</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03744165595811031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02506192790715555</v>
+        <v>0.0248537096419897</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05496897155032212</v>
+        <v>0.05351853610892428</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8170</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3625</v>
+        <v>3805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15358</v>
+        <v>15528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01194001497026664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005297621601005181</v>
+        <v>0.005560978018200771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02244502518548542</v>
+        <v>0.02269384814153276</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -786,19 +786,19 @@
         <v>33875</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23700</v>
+        <v>23992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47038</v>
+        <v>47036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02471215751739171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01728977911845105</v>
+        <v>0.01750269305011868</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03431506524068065</v>
+        <v>0.03431359988539374</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>63934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49817</v>
+        <v>48653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79999</v>
+        <v>80595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09312691881035796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07256286892008315</v>
+        <v>0.07086835619171392</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1165272771303272</v>
+        <v>0.1173940826262362</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -836,19 +836,19 @@
         <v>21337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12422</v>
+        <v>13242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31216</v>
+        <v>31821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03118413565201299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01815514530829544</v>
+        <v>0.01935300296973843</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04562167494214617</v>
+        <v>0.0465058556817856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -857,19 +857,19 @@
         <v>85272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>69038</v>
+        <v>69547</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104370</v>
+        <v>103784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0622073179108005</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05036469229151979</v>
+        <v>0.050735578117231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0761397191817077</v>
+        <v>0.07571242475238957</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>289094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>264396</v>
+        <v>263157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>314452</v>
+        <v>315385</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.421094652276059</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.385119912485163</v>
+        <v>0.3833153574830571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4580311013575913</v>
+        <v>0.4593906666827143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>376</v>
@@ -907,19 +907,19 @@
         <v>371127</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>346961</v>
+        <v>344867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>398073</v>
+        <v>395856</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5423948436686248</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5070764173873342</v>
+        <v>0.5040167528226537</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5817751691223342</v>
+        <v>0.57853532048614</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>660</v>
@@ -928,19 +928,19 @@
         <v>660221</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>623832</v>
+        <v>622822</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>695903</v>
+        <v>693010</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4816433282583844</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4550967703655495</v>
+        <v>0.4543597190229281</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5076735989004957</v>
+        <v>0.5055630576144635</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>307797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>280162</v>
+        <v>283282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>331576</v>
+        <v>336329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4483367729554728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.408083507754758</v>
+        <v>0.4126284633336395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.482973431807494</v>
+        <v>0.4898976914501392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>285</v>
@@ -978,19 +978,19 @@
         <v>283604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>256790</v>
+        <v>259264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>309610</v>
+        <v>308039</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4144810057090955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3752929669457883</v>
+        <v>0.3789090426338803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4524891334701463</v>
+        <v>0.4501932223000119</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>588</v>
@@ -999,19 +999,19 @@
         <v>591400</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>555449</v>
+        <v>559043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>625938</v>
+        <v>629442</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4314371963134234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.405209842810371</v>
+        <v>0.4078322696033838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4566328863589871</v>
+        <v>0.4591890547837473</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>40276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29497</v>
+        <v>30127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>55155</v>
+        <v>54752</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04262087215308471</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03121395690784411</v>
+        <v>0.03188117602992144</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05836531549117104</v>
+        <v>0.05793975733570502</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1124,19 +1124,19 @@
         <v>7563</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3605</v>
+        <v>3722</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15137</v>
+        <v>14412</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0079444786980165</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003786962610475938</v>
+        <v>0.003909106629197816</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01589985009987352</v>
+        <v>0.01513845053152805</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>47</v>
@@ -1145,19 +1145,19 @@
         <v>47840</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34617</v>
+        <v>35556</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61253</v>
+        <v>65358</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02521836310893046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01824829010544765</v>
+        <v>0.0187432770933682</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03228902253196306</v>
+        <v>0.03445311662936203</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>111117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91551</v>
+        <v>90549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134635</v>
+        <v>134064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1175853655006634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09688092017065048</v>
+        <v>0.09581982943498328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1424721536024461</v>
+        <v>0.1418678150393769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1195,19 +1195,19 @@
         <v>55435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42626</v>
+        <v>42879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70015</v>
+        <v>73324</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05822831213207522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04477448201975166</v>
+        <v>0.04503934814321416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07354289947718461</v>
+        <v>0.0770186217636704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -1216,19 +1216,19 @@
         <v>166552</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141398</v>
+        <v>142562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194015</v>
+        <v>196039</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08779675269640341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07453715725880818</v>
+        <v>0.07515087938307423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1022738742661976</v>
+        <v>0.1033406242826611</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>395612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>366210</v>
+        <v>364005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427917</v>
+        <v>426727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4186414013565247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3875285358361052</v>
+        <v>0.3851950448924858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4528272649461768</v>
+        <v>0.4515683684698936</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -1266,19 +1266,19 @@
         <v>439676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>409212</v>
+        <v>406700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>469661</v>
+        <v>470814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4618316672136767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.429832931948657</v>
+        <v>0.4271938336287471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4933279838394911</v>
+        <v>0.4945388669319863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>794</v>
@@ -1287,19 +1287,19 @@
         <v>835287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>791681</v>
+        <v>790996</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>879472</v>
+        <v>878865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4403166367921943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4173297003852328</v>
+        <v>0.4169689782843995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4636081797378812</v>
+        <v>0.4632884118117722</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>397984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>363960</v>
+        <v>367202</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>427444</v>
+        <v>429642</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4211523609897271</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.385147712578829</v>
+        <v>0.3885783681990478</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4523265959158147</v>
+        <v>0.4546526701546196</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>415</v>
@@ -1337,19 +1337,19 @@
         <v>449352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>417953</v>
+        <v>418805</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>480956</v>
+        <v>483416</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4719955419562315</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4390138222832271</v>
+        <v>0.4399089062270679</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.505192563812535</v>
+        <v>0.5077757278081015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>779</v>
@@ -1358,19 +1358,19 @@
         <v>847336</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>804127</v>
+        <v>803825</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>892782</v>
+        <v>892818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4466682474024718</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.42389056332125</v>
+        <v>0.4237313425034585</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4706247416271519</v>
+        <v>0.4706435974819459</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>38233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27215</v>
+        <v>27679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52335</v>
+        <v>52553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05704451700906703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0406050517165568</v>
+        <v>0.04129710208424303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07808418928062903</v>
+        <v>0.07841009895076985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1483,19 +1483,19 @@
         <v>15770</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9515</v>
+        <v>8964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24639</v>
+        <v>24326</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02349200534032211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01417427147799533</v>
+        <v>0.01335309248041392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03670313521042897</v>
+        <v>0.03623595295408414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -1504,19 +1504,19 @@
         <v>54004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40316</v>
+        <v>41140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69306</v>
+        <v>70363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04025481255428388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03005168125868942</v>
+        <v>0.03066579699524804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05166098426413144</v>
+        <v>0.05244946136509079</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>112965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>90888</v>
+        <v>94686</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>132212</v>
+        <v>134408</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1685447506728278</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1356058370212064</v>
+        <v>0.1412732263099991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.197261211310687</v>
+        <v>0.2005378098053454</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -1554,19 +1554,19 @@
         <v>48735</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35929</v>
+        <v>37425</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62503</v>
+        <v>62726</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07259636282292802</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05352052493817792</v>
+        <v>0.0557490481575466</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09310513735065355</v>
+        <v>0.09343761578150658</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>160</v>
@@ -1575,19 +1575,19 @@
         <v>161699</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>137990</v>
+        <v>139264</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>186582</v>
+        <v>185561</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1205320984214208</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1028588000692333</v>
+        <v>0.1038084416258836</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1390800826809564</v>
+        <v>0.1383187016815661</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>299932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>272522</v>
+        <v>274957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327954</v>
+        <v>325338</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4475013540645075</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4066056719866842</v>
+        <v>0.4102393456064072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4893117366269031</v>
+        <v>0.4854078128139958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>350</v>
@@ -1625,19 +1625,19 @@
         <v>344525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>320064</v>
+        <v>319941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>369334</v>
+        <v>369104</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5132115797424611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4767739829203517</v>
+        <v>0.4765918715707374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5501677316875735</v>
+        <v>0.5498252322241175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>631</v>
@@ -1646,19 +1646,19 @@
         <v>644456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>608426</v>
+        <v>609733</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>679403</v>
+        <v>685663</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4803828050772392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4535260161955036</v>
+        <v>0.4544998815731189</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5064328496914844</v>
+        <v>0.5110986869646641</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>219106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194185</v>
+        <v>195783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>246036</v>
+        <v>245033</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3269093782535977</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2897262724831538</v>
+        <v>0.2921112419652272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3670885022415377</v>
+        <v>0.3655917013367885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>264</v>
@@ -1696,19 +1696,19 @@
         <v>262281</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236709</v>
+        <v>238629</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285302</v>
+        <v>287594</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3907000520942888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3526073651660933</v>
+        <v>0.3554672007639904</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4249930253281952</v>
+        <v>0.4284066608093602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>472</v>
@@ -1717,19 +1717,19 @@
         <v>481388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>448403</v>
+        <v>441503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>515424</v>
+        <v>515761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3588302839470561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3342434210045462</v>
+        <v>0.3291002843961108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3842012885205676</v>
+        <v>0.3844522758900761</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>43804</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32537</v>
+        <v>32563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58403</v>
+        <v>58448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04711106107830959</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03499350334120973</v>
+        <v>0.03502158385203194</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06281170057042057</v>
+        <v>0.06286068893261802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1842,19 +1842,19 @@
         <v>23490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14918</v>
+        <v>14523</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34415</v>
+        <v>35248</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02323011885391353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01475281260259545</v>
+        <v>0.0143621552489455</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03403386592816534</v>
+        <v>0.0348577355045559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -1863,19 +1863,19 @@
         <v>67294</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51314</v>
+        <v>52551</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83016</v>
+        <v>86243</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03466998419227483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02643711980703056</v>
+        <v>0.02707435903289496</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04276963933315485</v>
+        <v>0.04443217973806508</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>109998</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93864</v>
+        <v>91564</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131442</v>
+        <v>129502</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1183020910013716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1009499602288151</v>
+        <v>0.09847618935352419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1413651910175746</v>
+        <v>0.1392778841296173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1913,19 +1913,19 @@
         <v>66135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51623</v>
+        <v>50931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82462</v>
+        <v>81372</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06540347769149078</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05105206164747693</v>
+        <v>0.05036736319089181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0815499939169321</v>
+        <v>0.0804720782729062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>181</v>
@@ -1934,19 +1934,19 @@
         <v>176133</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>152145</v>
+        <v>154646</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203445</v>
+        <v>203261</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09074389379253041</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0783853446468404</v>
+        <v>0.07967377775257303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1048147612603726</v>
+        <v>0.1047203451045731</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>373766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>344946</v>
+        <v>346200</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>404610</v>
+        <v>405111</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4019816866993547</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3709867618331074</v>
+        <v>0.3723345089820824</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4351539639053098</v>
+        <v>0.4356935955646423</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>375</v>
@@ -1984,19 +1984,19 @@
         <v>385734</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>353581</v>
+        <v>353868</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>416463</v>
+        <v>415195</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3814672527723205</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3496706930670352</v>
+        <v>0.3499543281935544</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.411856933681381</v>
+        <v>0.4106027945641126</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>777</v>
@@ -2005,19 +2005,19 @@
         <v>759499</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>713250</v>
+        <v>715747</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>800630</v>
+        <v>798496</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.391294434606806</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3674666136380205</v>
+        <v>0.3687531643025045</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4124850321606149</v>
+        <v>0.4113854926393045</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>402240</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>374682</v>
+        <v>365408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>431384</v>
+        <v>427483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4326051612209641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4029668956702871</v>
+        <v>0.392993449357428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4639498280139734</v>
+        <v>0.4597541645598676</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>509</v>
@@ -2055,19 +2055,19 @@
         <v>535826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>504158</v>
+        <v>504344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>567202</v>
+        <v>567983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5298991506822752</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4985815537694576</v>
+        <v>0.4987662523115327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5609288979482482</v>
+        <v>0.5617005033684477</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>925</v>
@@ -2076,19 +2076,19 @@
         <v>938065</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>894840</v>
+        <v>895680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>982274</v>
+        <v>982705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4832916874083888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4610220096799007</v>
+        <v>0.4614547383427298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5060681767000418</v>
+        <v>0.506290288622568</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>148019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>125401</v>
+        <v>125561</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>175122</v>
+        <v>174167</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0458040269942334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03880519038443635</v>
+        <v>0.03885456626172739</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05419121733221514</v>
+        <v>0.05389549182397937</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2201,19 +2201,19 @@
         <v>54994</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41902</v>
+        <v>41344</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71932</v>
+        <v>71471</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01657051038481552</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01262585434737357</v>
+        <v>0.01245760616039316</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02167428791482326</v>
+        <v>0.02153546878188121</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>202</v>
@@ -2222,19 +2222,19 @@
         <v>203012</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174601</v>
+        <v>175982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>233181</v>
+        <v>231414</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03099269433867079</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02665533493891675</v>
+        <v>0.02686617899420117</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03559843349420144</v>
+        <v>0.03532868940375589</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>398014</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>362281</v>
+        <v>363081</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>438280</v>
+        <v>440540</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1231646325205541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1121071515329711</v>
+        <v>0.1123546823524462</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.135624774346488</v>
+        <v>0.136324121306983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>192</v>
@@ -2272,19 +2272,19 @@
         <v>191642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>166278</v>
+        <v>166798</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>218814</v>
+        <v>220069</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05774505592647525</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0501024687952623</v>
+        <v>0.05025910977778977</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06593246626621685</v>
+        <v>0.06631070159184532</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>582</v>
@@ -2293,19 +2293,19 @@
         <v>589656</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>541866</v>
+        <v>545276</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>633455</v>
+        <v>634830</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0900194203291203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08272356212134514</v>
+        <v>0.08324422502583165</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09670587580109627</v>
+        <v>0.09691587546809632</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1358403</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1303137</v>
+        <v>1294998</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1415749</v>
+        <v>1416015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4203547744292568</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4032527493478191</v>
+        <v>0.4007343894286267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.438100312264926</v>
+        <v>0.4381828223654883</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1517</v>
@@ -2343,19 +2343,19 @@
         <v>1541061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1483469</v>
+        <v>1478499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1599342</v>
+        <v>1595844</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4643486017273343</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4469950438808322</v>
+        <v>0.4454975028155058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4819096076904887</v>
+        <v>0.4808556279643336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2862</v>
@@ -2364,19 +2364,19 @@
         <v>2899464</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2820564</v>
+        <v>2816429</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2981018</v>
+        <v>2975260</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4426445050699173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4305992791327862</v>
+        <v>0.4299680116196401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4550949220447632</v>
+        <v>0.4542158293176172</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>1327127</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1473</v>
@@ -2414,19 +2414,19 @@
         <v>1531062</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2764</v>
@@ -2435,19 +2435,19 @@
         <v>2858190</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>51202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38556</v>
+        <v>38733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66010</v>
+        <v>65877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07287387189910322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05487519149845919</v>
+        <v>0.05512756032097613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09394975479251132</v>
+        <v>0.09376061150228816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2800,19 +2800,19 @@
         <v>17234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10122</v>
+        <v>9747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28293</v>
+        <v>28131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02472429395191062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01452113304481043</v>
+        <v>0.01398389645510462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04058989750867841</v>
+        <v>0.04035716456326195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -2821,19 +2821,19 @@
         <v>68436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52877</v>
+        <v>52936</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84928</v>
+        <v>87154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04889468313859444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0377781613856704</v>
+        <v>0.03782084081713152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06067799020816642</v>
+        <v>0.06226815604365761</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>100717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81760</v>
+        <v>80455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122519</v>
+        <v>119270</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1433473262859375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1163664584791327</v>
+        <v>0.1145097075195036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1743769363389075</v>
+        <v>0.1697538544113089</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -2871,19 +2871,19 @@
         <v>34169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23481</v>
+        <v>23502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48328</v>
+        <v>47179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04901940021109868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03368645694812542</v>
+        <v>0.03371704089817191</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06933240908295565</v>
+        <v>0.06768385468544477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -2892,19 +2892,19 @@
         <v>134886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109762</v>
+        <v>112350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158068</v>
+        <v>158227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09637064982957075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07842039425824004</v>
+        <v>0.08026932467933494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1129332512254332</v>
+        <v>0.1130469484229808</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>388318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>362243</v>
+        <v>361917</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>415591</v>
+        <v>415790</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5526810399178808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5155689368912066</v>
+        <v>0.5151053308984372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5914976021008631</v>
+        <v>0.5917807837450553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>425</v>
@@ -2942,19 +2942,19 @@
         <v>456165</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>429997</v>
+        <v>429868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>480853</v>
+        <v>481727</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6544228762606018</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6168807480660365</v>
+        <v>0.6166962418430192</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6898398281246558</v>
+        <v>0.6910944477360469</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>796</v>
@@ -2963,19 +2963,19 @@
         <v>844484</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>806361</v>
+        <v>807875</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>881513</v>
+        <v>882557</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6033499513085183</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5761128122885584</v>
+        <v>0.5771944651109631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.629805807636774</v>
+        <v>0.6305517165907197</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>162371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141492</v>
+        <v>141058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>186421</v>
+        <v>186131</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2310977618970785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2013812957372589</v>
+        <v>0.2007632502671841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2653278037346806</v>
+        <v>0.2649139181823896</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -3013,19 +3013,19 @@
         <v>189481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166431</v>
+        <v>166717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215086</v>
+        <v>215822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2718334295763889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.238765115061411</v>
+        <v>0.2391752799325334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3085656765918866</v>
+        <v>0.3096224427875227</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>331</v>
@@ -3034,19 +3034,19 @@
         <v>351853</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320209</v>
+        <v>316886</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>385170</v>
+        <v>380737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2513847157233164</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2287764277670609</v>
+        <v>0.2264025814133288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2751889462973023</v>
+        <v>0.2720217476911513</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>68157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52434</v>
+        <v>53127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85796</v>
+        <v>85756</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06695522353028396</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05150917647094708</v>
+        <v>0.05219076231749749</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0842836110523358</v>
+        <v>0.08424435597886985</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -3159,19 +3159,19 @@
         <v>14253</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8175</v>
+        <v>8157</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24571</v>
+        <v>25031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01380834653109023</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007919727657283748</v>
+        <v>0.007902552012384679</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0238051514532417</v>
+        <v>0.02425049309827093</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -3180,19 +3180,19 @@
         <v>82410</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>65260</v>
+        <v>64447</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103761</v>
+        <v>102658</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04019724914622735</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03183198432740864</v>
+        <v>0.03143543636095887</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05061208140405261</v>
+        <v>0.05007374710987927</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>164235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141733</v>
+        <v>141594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190489</v>
+        <v>189761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1613398092857829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1392340163825608</v>
+        <v>0.1390980579838296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1871309749245503</v>
+        <v>0.1864154314102037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3230,19 +3230,19 @@
         <v>70918</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54752</v>
+        <v>55531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89809</v>
+        <v>89836</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06870681813239131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0530450274374424</v>
+        <v>0.05379953189012467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08700875653947204</v>
+        <v>0.08703524993548632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -3251,19 +3251,19 @@
         <v>235153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203642</v>
+        <v>206893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>263644</v>
+        <v>268254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1147016746605142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09933103788476041</v>
+        <v>0.1009169961806936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1285984103247477</v>
+        <v>0.1308474848627932</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>540780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>506629</v>
+        <v>505679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>572068</v>
+        <v>573562</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5312453834913632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4976973042828856</v>
+        <v>0.4967639939504125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5619823926397216</v>
+        <v>0.5634498578340689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>526</v>
@@ -3301,19 +3301,19 @@
         <v>573114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541697</v>
+        <v>537705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>608375</v>
+        <v>605857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5552437157245897</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5248066483011509</v>
+        <v>0.5209386602700274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5894055920842193</v>
+        <v>0.5869663489972174</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1019</v>
@@ -3322,19 +3322,19 @@
         <v>1113893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1073154</v>
+        <v>1069588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1161304</v>
+        <v>1161065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.543327876300235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5234562499963223</v>
+        <v>0.5217171266143541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5664533402647641</v>
+        <v>0.566337045609387</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>244775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>219856</v>
+        <v>218325</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>275503</v>
+        <v>276971</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2404595836925699</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2159793556250713</v>
+        <v>0.2144761146147112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2706460396719133</v>
+        <v>0.2720874500260745</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>338</v>
@@ -3372,19 +3372,19 @@
         <v>373899</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>340956</v>
+        <v>342594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>407980</v>
+        <v>405302</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3622411196119287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3303251516952018</v>
+        <v>0.3319121122007032</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3952585167266717</v>
+        <v>0.3926649295443291</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>563</v>
@@ -3393,19 +3393,19 @@
         <v>618675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>575238</v>
+        <v>578915</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>662600</v>
+        <v>663063</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3017731998930234</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2805859775309768</v>
+        <v>0.2823793742249858</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3231990193810337</v>
+        <v>0.3234245057158579</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>69493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54410</v>
+        <v>53713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87764</v>
+        <v>87180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09172488553786023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0718164333765292</v>
+        <v>0.07089684962712528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1158412850240869</v>
+        <v>0.1150703921955966</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -3518,19 +3518,19 @@
         <v>15011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8652</v>
+        <v>8238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26981</v>
+        <v>25507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0193419385627717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01114868373497121</v>
+        <v>0.01061457860375649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03476630985287583</v>
+        <v>0.03286672280479293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -3539,19 +3539,19 @@
         <v>84504</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68353</v>
+        <v>67482</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107535</v>
+        <v>104427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05509796837993661</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04456761517397931</v>
+        <v>0.04399942300988585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07011459431531178</v>
+        <v>0.06808809214940495</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>168260</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>146166</v>
+        <v>145953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>195301</v>
+        <v>198994</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2220896401442246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1929275859686945</v>
+        <v>0.1926456845677901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2577816566466494</v>
+        <v>0.2626556130349157</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -3589,19 +3589,19 @@
         <v>48187</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35471</v>
+        <v>35192</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63692</v>
+        <v>63004</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06209038035598117</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0457062180368809</v>
+        <v>0.04534640760541898</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0820695140705375</v>
+        <v>0.08118260362688479</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>195</v>
@@ -3610,19 +3610,19 @@
         <v>216447</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>186035</v>
+        <v>189032</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>245858</v>
+        <v>244787</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1411274815350983</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1212981206335234</v>
+        <v>0.1232523565683616</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1603036917595468</v>
+        <v>0.1596057810298158</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>362510</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>330870</v>
+        <v>332417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>390477</v>
+        <v>393299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.478483748535943</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4367216333200271</v>
+        <v>0.4387637231824328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.515397232364205</v>
+        <v>0.5191224452933921</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>443</v>
@@ -3660,19 +3660,19 @@
         <v>494126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>466804</v>
+        <v>466751</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>524098</v>
+        <v>523168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6366985324038259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6014929111507908</v>
+        <v>0.6014249509842144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6753177375327792</v>
+        <v>0.6741201749776049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>771</v>
@@ -3681,19 +3681,19 @@
         <v>856637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>818338</v>
+        <v>818135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>898351</v>
+        <v>897611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5585429340770088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5335710530725477</v>
+        <v>0.5334386956859333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5857410704331986</v>
+        <v>0.5852587687231164</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>157360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133084</v>
+        <v>133857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180956</v>
+        <v>181797</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2077017257819722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1756596736907015</v>
+        <v>0.176680496564451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2388465317447079</v>
+        <v>0.239957391762652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -3731,19 +3731,19 @@
         <v>218752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192250</v>
+        <v>191402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>244344</v>
+        <v>244619</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2818691486774212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2477210958274355</v>
+        <v>0.2466284793400219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.314845640792138</v>
+        <v>0.3152002161188928</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>348</v>
@@ -3752,19 +3752,19 @@
         <v>376112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>339929</v>
+        <v>343943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409685</v>
+        <v>414394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2452316160079563</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2216398709403915</v>
+        <v>0.2242568723393159</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2671220656975889</v>
+        <v>0.2701921738233104</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>97506</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80934</v>
+        <v>79722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118058</v>
+        <v>116641</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1029801235507408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08547755264165187</v>
+        <v>0.08419761982952803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1246861579545658</v>
+        <v>0.1231890972135986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -3877,19 +3877,19 @@
         <v>23693</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14913</v>
+        <v>15904</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35492</v>
+        <v>36372</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02252427099859624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0141771684698662</v>
+        <v>0.01511919405810991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03374061175189771</v>
+        <v>0.03457729369886171</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -3898,19 +3898,19 @@
         <v>121199</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100326</v>
+        <v>102009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143294</v>
+        <v>143654</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06063772384875378</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05019471037918107</v>
+        <v>0.05103676821301625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0716921811517328</v>
+        <v>0.07187227479001974</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>166997</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145155</v>
+        <v>145828</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194515</v>
+        <v>191982</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1763726402190789</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1533045510282829</v>
+        <v>0.1540153369845481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2054359907762678</v>
+        <v>0.2027603094921793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -3948,19 +3948,19 @@
         <v>79326</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63730</v>
+        <v>62602</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100987</v>
+        <v>97910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07541206751660112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06058596524685933</v>
+        <v>0.05951347109637736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09600458838783922</v>
+        <v>0.09307931499503164</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>238</v>
@@ -3969,19 +3969,19 @@
         <v>246323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>217543</v>
+        <v>215738</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>275639</v>
+        <v>272836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1232389925364668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1088400285211548</v>
+        <v>0.107936956433415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1379060998893279</v>
+        <v>0.1365035990088843</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>477116</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>444612</v>
+        <v>446339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>507859</v>
+        <v>507260</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5039029649428768</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4695732539430896</v>
+        <v>0.4713976008659925</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5363718860922647</v>
+        <v>0.5357386864872725</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>598</v>
@@ -4019,19 +4019,19 @@
         <v>630186</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>598854</v>
+        <v>596163</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>662440</v>
+        <v>663131</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5990920394641813</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5693063704506318</v>
+        <v>0.5667481678090927</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6297552229103228</v>
+        <v>0.6304115786748327</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1053</v>
@@ -4040,19 +4040,19 @@
         <v>1107302</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1061898</v>
+        <v>1056145</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1148827</v>
+        <v>1150645</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5539991818468125</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5312831031140691</v>
+        <v>0.5284044308346516</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5747746118597546</v>
+        <v>0.5756841333529367</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>205223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178838</v>
+        <v>178300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>231427</v>
+        <v>231742</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2167442712873035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1888780951127469</v>
+        <v>0.1883098503967902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2444200383724794</v>
+        <v>0.2447524921052378</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>307</v>
@@ -4090,19 +4090,19 @@
         <v>318696</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286482</v>
+        <v>289274</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>350599</v>
+        <v>349572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3029716220206213</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2723471889449604</v>
+        <v>0.2750009685494169</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3333006356452344</v>
+        <v>0.3323244328609032</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>500</v>
@@ -4111,19 +4111,19 @@
         <v>523919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>482291</v>
+        <v>488032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>565993</v>
+        <v>567660</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2621241017679669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2412974006823806</v>
+        <v>0.2441692670246307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2831743485420031</v>
+        <v>0.2840082975796224</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>286358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>253521</v>
+        <v>252715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>323340</v>
+        <v>319596</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08360752098902265</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07402027405549888</v>
+        <v>0.07378490042574815</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09440515125678328</v>
+        <v>0.09331222011193695</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -4236,19 +4236,19 @@
         <v>70191</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53492</v>
+        <v>55715</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89278</v>
+        <v>91209</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01973201499687725</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01503767512880608</v>
+        <v>0.01566267608578859</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02509773261996879</v>
+        <v>0.02564059475651379</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>344</v>
@@ -4257,19 +4257,19 @@
         <v>356548</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319140</v>
+        <v>319590</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>395732</v>
+        <v>394996</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05106510952769678</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04570749857279378</v>
+        <v>0.04577192470673634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05667702226681317</v>
+        <v>0.05657166520539313</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>600210</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>555796</v>
+        <v>559831</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>645094</v>
+        <v>645920</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.175242658048602</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1622753287421647</v>
+        <v>0.1634531781884069</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1883474599762315</v>
+        <v>0.1885886839545559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>215</v>
@@ -4307,19 +4307,19 @@
         <v>232600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>205194</v>
+        <v>202470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>264988</v>
+        <v>266076</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06538828704047898</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05768406231478844</v>
+        <v>0.05691820275579508</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07449317972883128</v>
+        <v>0.0747991130670259</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>779</v>
@@ -4328,19 +4328,19 @@
         <v>832810</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>776731</v>
+        <v>775703</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>890211</v>
+        <v>892592</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1192755688389903</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1112439830412932</v>
+        <v>0.1110967623442078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1274965914078602</v>
+        <v>0.1278375635191586</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1768725</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1706727</v>
+        <v>1712751</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1833724</v>
+        <v>1828573</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.516412906784791</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4983114667707112</v>
+        <v>0.5000703205101223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.535390687722602</v>
+        <v>0.5338866388840418</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1992</v>
@@ -4378,19 +4378,19 @@
         <v>2153591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2092693</v>
+        <v>2089862</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2214630</v>
+        <v>2213208</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6054156242471843</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5882960810869317</v>
+        <v>0.5875002850774994</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6225746811795214</v>
+        <v>0.6221750065393539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3639</v>
@@ -4399,19 +4399,19 @@
         <v>3922316</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3836208</v>
+        <v>3829975</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4004205</v>
+        <v>4004418</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5617567832496365</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5494243417120765</v>
+        <v>0.5485315691771796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5734850085047327</v>
+        <v>0.5735155026738435</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>769729</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2247369141775843</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1026</v>
@@ -4449,19 +4449,19 @@
         <v>1100829</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3094640737154594</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1742</v>
@@ -4470,19 +4470,19 @@
         <v>1870558</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2679025383836764</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>20118</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11975</v>
+        <v>12750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30875</v>
+        <v>30795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02981328996524154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0177459446529974</v>
+        <v>0.01889397094443233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04575442927328668</v>
+        <v>0.04563641864590265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4835,19 +4835,19 @@
         <v>6998</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2905</v>
+        <v>2910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14279</v>
+        <v>14865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01040057172888955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004316838500136704</v>
+        <v>0.004325413346535042</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02122266784816515</v>
+        <v>0.0220932420362546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4856,19 +4856,19 @@
         <v>27116</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18612</v>
+        <v>18410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38374</v>
+        <v>40360</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02012105494793344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01381091236342758</v>
+        <v>0.01366128135589879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02847486266915488</v>
+        <v>0.02994854085012262</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>121411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103682</v>
+        <v>103463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>142676</v>
+        <v>143393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1799208471475396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1536477899260959</v>
+        <v>0.1533232677545589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2114351441079331</v>
+        <v>0.2124966584935349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4906,19 +4906,19 @@
         <v>51084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38262</v>
+        <v>39005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65953</v>
+        <v>65320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07592258763337173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05686721254523314</v>
+        <v>0.05797026481880711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09802247246161634</v>
+        <v>0.0970807816875677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>171</v>
@@ -4927,19 +4927,19 @@
         <v>172494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149124</v>
+        <v>152242</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197350</v>
+        <v>199198</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1279973833476689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1106555900016164</v>
+        <v>0.1129692750715776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1464412510894907</v>
+        <v>0.1478129024396789</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>295074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>270172</v>
+        <v>270177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>323838</v>
+        <v>321501</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4372762386042571</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.400373325663575</v>
+        <v>0.4003812781926185</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4799015862672508</v>
+        <v>0.4764388616100526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>307</v>
@@ -4977,19 +4977,19 @@
         <v>305298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>279052</v>
+        <v>278225</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>329768</v>
+        <v>332267</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.453746093714144</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4147384625480324</v>
+        <v>0.4135089542091607</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4901144529673099</v>
+        <v>0.4938287607171194</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>592</v>
@@ -4998,19 +4998,19 @@
         <v>600372</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>562898</v>
+        <v>565158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>636315</v>
+        <v>638359</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4454991831956598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4176922805087884</v>
+        <v>0.4193690433309593</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4721704440693928</v>
+        <v>0.4736870156107188</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>238197</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212704</v>
+        <v>213785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263162</v>
+        <v>262096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3529896242829618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3152110083880708</v>
+        <v>0.3168119136770198</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3899847383067955</v>
+        <v>0.3884052577957345</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>299</v>
@@ -5048,19 +5048,19 @@
         <v>309459</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283522</v>
+        <v>281972</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>335404</v>
+        <v>335641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4599307469235948</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4213817392181555</v>
+        <v>0.4190784314993904</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4984904847507987</v>
+        <v>0.4988425975621177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>528</v>
@@ -5069,19 +5069,19 @@
         <v>547657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>511803</v>
+        <v>512257</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>586787</v>
+        <v>582218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4063823785087378</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3797775490654917</v>
+        <v>0.3801144648389968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4354184530902782</v>
+        <v>0.4320279490491659</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>87787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69458</v>
+        <v>71999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106278</v>
+        <v>108091</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08586108056939905</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06793420252312388</v>
+        <v>0.07041930360561044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1039468294868059</v>
+        <v>0.1057191418083622</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -5194,19 +5194,19 @@
         <v>24175</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16101</v>
+        <v>16483</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33830</v>
+        <v>34877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02318017051310228</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0154387507604016</v>
+        <v>0.01580476367647536</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03243826140634946</v>
+        <v>0.03344209298986852</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>104</v>
@@ -5215,19 +5215,19 @@
         <v>111962</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>92460</v>
+        <v>93828</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134135</v>
+        <v>134726</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0542098223429489</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04476738053273309</v>
+        <v>0.04542962011393083</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06494542791077358</v>
+        <v>0.06523188677309413</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>176808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154667</v>
+        <v>153988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206457</v>
+        <v>202877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1729291046134785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1512733381372487</v>
+        <v>0.1506099336656615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2019274187835549</v>
+        <v>0.1984258158650347</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -5265,19 +5265,19 @@
         <v>110159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89510</v>
+        <v>89547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130885</v>
+        <v>132173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056264174200929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08582666595771314</v>
+        <v>0.08586281672508303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.125499076984143</v>
+        <v>0.1267343974554148</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -5286,19 +5286,19 @@
         <v>286967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>257200</v>
+        <v>255088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>323709</v>
+        <v>318951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1389440407434964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1245315381778555</v>
+        <v>0.1235086849365291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1567338822814107</v>
+        <v>0.1544300251223593</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>398827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>366862</v>
+        <v>368689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>429424</v>
+        <v>428458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3900775647427639</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3588133612339528</v>
+        <v>0.360600302605527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4200024268052222</v>
+        <v>0.4190579263171639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>436</v>
@@ -5336,19 +5336,19 @@
         <v>460035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>425210</v>
+        <v>426135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>491498</v>
+        <v>491391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4411062728026818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.40771368234991</v>
+        <v>0.4086004973289838</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4712741784520041</v>
+        <v>0.4711719312861365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>808</v>
@@ -5357,19 +5357,19 @@
         <v>858863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>813497</v>
+        <v>815419</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>904681</v>
+        <v>905813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4158449445449394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3938794790222861</v>
+        <v>0.3948104570434203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4380291226540498</v>
+        <v>0.4385772825592052</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>359008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>327668</v>
+        <v>328333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>389634</v>
+        <v>392218</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3511322500743586</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3204795152248011</v>
+        <v>0.3211298023147229</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3810856568101474</v>
+        <v>0.3836131454716549</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>414</v>
@@ -5407,19 +5407,19 @@
         <v>448543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>415181</v>
+        <v>416140</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>482127</v>
+        <v>482431</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4300871392641231</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3980976875670661</v>
+        <v>0.3990168474524824</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4622891337367188</v>
+        <v>0.4625799371504378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>753</v>
@@ -5428,19 +5428,19 @@
         <v>807552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>763879</v>
+        <v>762682</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>855719</v>
+        <v>853466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3910011923686153</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3698556711249405</v>
+        <v>0.3692757946051386</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4143229093900114</v>
+        <v>0.4132317036197795</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>49107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37124</v>
+        <v>37021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65020</v>
+        <v>64520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06465197079840218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04887617813526436</v>
+        <v>0.04874046516892629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08560268929928859</v>
+        <v>0.0849448607749803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -5553,19 +5553,19 @@
         <v>19942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12736</v>
+        <v>12834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30951</v>
+        <v>29318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02540285063188568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01622439276701992</v>
+        <v>0.01634859335662105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03942706126144046</v>
+        <v>0.03734723652037538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>66</v>
@@ -5574,19 +5574,19 @@
         <v>69048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53249</v>
+        <v>54398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85181</v>
+        <v>86690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04470394420510083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03447503238551047</v>
+        <v>0.03521896875726913</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05514863395028375</v>
+        <v>0.05612559309423314</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>122087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>102139</v>
+        <v>102690</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145774</v>
+        <v>145153</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1607353169194319</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1344722762633195</v>
+        <v>0.1351978587511632</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1919211912528847</v>
+        <v>0.1911027870489695</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -5624,19 +5624,19 @@
         <v>70344</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55544</v>
+        <v>55398</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87260</v>
+        <v>86452</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08960883674662508</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07075595935156453</v>
+        <v>0.07057027571209853</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1111579706861181</v>
+        <v>0.1101280742781963</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>177</v>
@@ -5645,19 +5645,19 @@
         <v>192431</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>166681</v>
+        <v>166421</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>223902</v>
+        <v>220230</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1245858972138284</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1079148355219036</v>
+        <v>0.1077465087479907</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1449616036317513</v>
+        <v>0.1425843358715383</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>336189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>305900</v>
+        <v>309340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>365854</v>
+        <v>365307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4426150298750758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4027370913280695</v>
+        <v>0.4072666973077819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.48167016345551</v>
+        <v>0.4809500680397601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>362</v>
@@ -5695,19 +5695,19 @@
         <v>382659</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>356230</v>
+        <v>353778</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415617</v>
+        <v>411617</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4874564101238154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4537894223742512</v>
+        <v>0.4506660570225703</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5294406617309008</v>
+        <v>0.5243454347458121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>670</v>
@@ -5716,19 +5716,19 @@
         <v>718848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>676714</v>
+        <v>682289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>758353</v>
+        <v>755272</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4654052743923349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4381267236376</v>
+        <v>0.441735752554223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4909820237391765</v>
+        <v>0.4889876293301353</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>252170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>225223</v>
+        <v>226854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>278770</v>
+        <v>279348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3319976824070902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2965213840197909</v>
+        <v>0.2986683013122051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3670190674846612</v>
+        <v>0.367780221013569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>285</v>
@@ -5766,19 +5766,19 @@
         <v>312067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>282144</v>
+        <v>283085</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>340921</v>
+        <v>339123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3975319024976738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3594145550134755</v>
+        <v>0.3606129531080507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4342882456057839</v>
+        <v>0.4319973797157504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>519</v>
@@ -5787,19 +5787,19 @@
         <v>564236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>520145</v>
+        <v>524097</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>605097</v>
+        <v>602596</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3653048841887359</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3367584737269759</v>
+        <v>0.3393175239996743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3917593324017949</v>
+        <v>0.3901404021481198</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>86587</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69570</v>
+        <v>70371</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106010</v>
+        <v>104718</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09235236761294414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07420306450010396</v>
+        <v>0.07505739784347847</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1130691388866917</v>
+        <v>0.1116914306759818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -5912,19 +5912,19 @@
         <v>23756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15673</v>
+        <v>15000</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35423</v>
+        <v>34506</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02275918115719636</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01501535526584658</v>
+        <v>0.01437121396092967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03393686986680042</v>
+        <v>0.033058734468907</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -5933,19 +5933,19 @@
         <v>110342</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90742</v>
+        <v>91359</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>132715</v>
+        <v>132917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05569046857312965</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04579823893156556</v>
+        <v>0.04610931439058943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06698246103245564</v>
+        <v>0.06708442663350427</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>165900</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>146328</v>
+        <v>144066</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193708</v>
+        <v>188590</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1769472402660586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1560716220129529</v>
+        <v>0.1536593811952888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2066074367747465</v>
+        <v>0.201148266641495</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -5983,19 +5983,19 @@
         <v>110632</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92226</v>
+        <v>89524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134238</v>
+        <v>130830</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1059913535791698</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08835825949235314</v>
+        <v>0.08576894746528294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1286080579752941</v>
+        <v>0.1253429453238133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>272</v>
@@ -6004,19 +6004,19 @@
         <v>276531</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246080</v>
+        <v>248225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309845</v>
+        <v>307224</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1395674666635182</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1241983423522657</v>
+        <v>0.1252809617902675</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1563810644691923</v>
+        <v>0.1550582859510108</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>386512</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>357591</v>
+        <v>358230</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>415878</v>
+        <v>416180</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.412249697647305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3814031141182844</v>
+        <v>0.3820849721965801</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4435713512755173</v>
+        <v>0.4438937002193066</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>432</v>
@@ -6054,19 +6054,19 @@
         <v>465094</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>432151</v>
+        <v>433369</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>499521</v>
+        <v>499506</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4455866356558385</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4140256555411984</v>
+        <v>0.4151922239561931</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4785696806148234</v>
+        <v>0.4785551357058108</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>816</v>
@@ -6075,19 +6075,19 @@
         <v>851606</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>804793</v>
+        <v>807292</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>896448</v>
+        <v>897979</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4298116964263459</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4061848540892657</v>
+        <v>0.4074460598896262</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4524438316750813</v>
+        <v>0.4532168029125032</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>298569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>271493</v>
+        <v>273289</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>327159</v>
+        <v>327875</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3184506944736923</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.28957131000345</v>
+        <v>0.2914878913696132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3489450675830913</v>
+        <v>0.3497080090488748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>398</v>
@@ -6125,19 +6125,19 @@
         <v>444298</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>411610</v>
+        <v>412987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>480100</v>
+        <v>479516</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4256628296077954</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3943462566905836</v>
+        <v>0.3956652186163494</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4599633644409227</v>
+        <v>0.4594036015674102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>696</v>
@@ -6146,19 +6146,19 @@
         <v>742867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>701826</v>
+        <v>698950</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>783234</v>
+        <v>788407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3749303683370063</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3542166814269492</v>
+        <v>0.352765029399802</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3953041719519755</v>
+        <v>0.3979147552947297</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>243598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>217072</v>
+        <v>216721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>276364</v>
+        <v>278370</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07176575825835484</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0639510272971943</v>
+        <v>0.06384745683190016</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08141871319418872</v>
+        <v>0.08200974604309749</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -6271,19 +6271,19 @@
         <v>74870</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>59097</v>
+        <v>58106</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92821</v>
+        <v>92258</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02112258340431526</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01667266326886035</v>
+        <v>0.01639315424584536</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02618705274329174</v>
+        <v>0.02602816736479425</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>304</v>
@@ -6292,19 +6292,19 @@
         <v>318468</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>282300</v>
+        <v>281997</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>357521</v>
+        <v>353971</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04589608751240931</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04068377090656095</v>
+        <v>0.04064004735788779</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05152421467574116</v>
+        <v>0.05101261013891516</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>586205</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>540156</v>
+        <v>541815</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>628986</v>
+        <v>629470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1727003359120503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1591338672201733</v>
+        <v>0.1596227002815974</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1853037274988701</v>
+        <v>0.1854463091109872</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>330</v>
@@ -6342,19 +6342,19 @@
         <v>342218</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>307614</v>
+        <v>308916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377288</v>
+        <v>380697</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0965479640101361</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08678535589364787</v>
+        <v>0.08715262148997857</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1064419289235935</v>
+        <v>0.1074036908078246</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>883</v>
@@ -6363,19 +6363,19 @@
         <v>928424</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>865659</v>
+        <v>872850</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>986420</v>
+        <v>990326</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1337999945866254</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1247546757255468</v>
+        <v>0.1257910351096179</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1421582038322305</v>
+        <v>0.1427210312979388</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1416602</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1360383</v>
+        <v>1360526</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1476791</v>
+        <v>1475521</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4173412445441711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4007787572451573</v>
+        <v>0.4008207370970724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4350732524104127</v>
+        <v>0.4346991986300446</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1537</v>
@@ -6413,19 +6413,19 @@
         <v>1613086</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1554712</v>
+        <v>1555657</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1672564</v>
+        <v>1672965</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4550901502282468</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.438621408991541</v>
+        <v>0.4388880695090979</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4718704042415321</v>
+        <v>0.4719835403516757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2886</v>
@@ -6434,19 +6434,19 @@
         <v>3029688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2940026</v>
+        <v>2949485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3115296</v>
+        <v>3122425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.436624233098529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4237025546140893</v>
+        <v>0.4250656650675014</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4489616387452064</v>
+        <v>0.4499890185761224</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>1147944</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3381926612854238</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1396</v>
@@ -6484,19 +6484,19 @@
         <v>1514368</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4272393023573018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2496</v>
@@ -6505,19 +6505,19 @@
         <v>2662312</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3836796848024363</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>43774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31844</v>
+        <v>31899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59699</v>
+        <v>59828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06365871924190422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04630976595736389</v>
+        <v>0.04639025615977686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08681842809585773</v>
+        <v>0.08700581328620703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6870,19 +6870,19 @@
         <v>23631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15533</v>
+        <v>16373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33126</v>
+        <v>33014</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03226866591648037</v>
+        <v>0.03226866591648038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0212095880069491</v>
+        <v>0.02235701218567679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04523390295033812</v>
+        <v>0.04508100920424485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -6891,19 +6891,19 @@
         <v>67405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52335</v>
+        <v>52202</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86041</v>
+        <v>85128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04746960139733927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03685673996654027</v>
+        <v>0.03676293175931392</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06059376082873699</v>
+        <v>0.05995064473857366</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>80930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60332</v>
+        <v>61312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102381</v>
+        <v>103101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1176938513969396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08773830312095725</v>
+        <v>0.08916382704555222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1488890972468615</v>
+        <v>0.1499362999507683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -6941,19 +6941,19 @@
         <v>54919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42465</v>
+        <v>42586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70275</v>
+        <v>70057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07499123391945564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05798559824183975</v>
+        <v>0.05815150097985197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09596095338831938</v>
+        <v>0.09566221809672153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -6962,19 +6962,19 @@
         <v>135849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112933</v>
+        <v>113791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166012</v>
+        <v>166180</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09567038748474405</v>
+        <v>0.09567038748474402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07953200189351002</v>
+        <v>0.08013633023480189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1169124376044474</v>
+        <v>0.1170308433983834</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>293930</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>267467</v>
+        <v>268330</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>322291</v>
+        <v>322172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4274526887340453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3889687048076765</v>
+        <v>0.3902231883538296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.468696537615473</v>
+        <v>0.4685234622252052</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>653</v>
@@ -7012,19 +7012,19 @@
         <v>371111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>347444</v>
+        <v>350534</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>393618</v>
+        <v>394252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.506751598021279</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4744335020824514</v>
+        <v>0.4786531213858873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5374843778905716</v>
+        <v>0.5383504721248004</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1007</v>
@@ -7033,19 +7033,19 @@
         <v>665042</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>627567</v>
+        <v>630145</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>701800</v>
+        <v>700859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4683503378742816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4419591594116446</v>
+        <v>0.4437745542190362</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4942369965742145</v>
+        <v>0.4935742923521903</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>268998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>241888</v>
+        <v>242133</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297410</v>
+        <v>298520</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3911947406271107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3517694115008813</v>
+        <v>0.3521258966086491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4325138053615911</v>
+        <v>0.4341272624185749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>479</v>
@@ -7083,19 +7083,19 @@
         <v>282673</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>261663</v>
+        <v>260055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305789</v>
+        <v>305261</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3859885021427851</v>
+        <v>0.385988502142785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3573007179745643</v>
+        <v>0.3551048232217831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4175537868785441</v>
+        <v>0.4168326870030881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>750</v>
@@ -7104,19 +7104,19 @@
         <v>551671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>517000</v>
+        <v>513792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>586843</v>
+        <v>587821</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3885096732436351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3640932225364679</v>
+        <v>0.3618337347065537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4132796012117059</v>
+        <v>0.4139684077477599</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>96982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75176</v>
+        <v>75554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121862</v>
+        <v>124715</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09270065720796535</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07185664580260342</v>
+        <v>0.07221813224953129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1164815437632202</v>
+        <v>0.1192086380946529</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -7229,19 +7229,19 @@
         <v>52727</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41144</v>
+        <v>40573</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69129</v>
+        <v>67680</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04929905939363632</v>
+        <v>0.04929905939363631</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03846954213134067</v>
+        <v>0.03793570845008785</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06463505499310225</v>
+        <v>0.06328038634874779</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>129</v>
@@ -7250,19 +7250,19 @@
         <v>149709</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>123519</v>
+        <v>122470</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>178804</v>
+        <v>176630</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07076048997435749</v>
+        <v>0.07076048997435747</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05838183961424477</v>
+        <v>0.05788581934713607</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08451216488431501</v>
+        <v>0.08348458355191428</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>172334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143874</v>
+        <v>142540</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202246</v>
+        <v>202900</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.164725215178544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1375217927944352</v>
+        <v>0.1362470407232076</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1933174187291244</v>
+        <v>0.193941924801673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -7300,19 +7300,19 @@
         <v>70046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54162</v>
+        <v>54078</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88152</v>
+        <v>86091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0654930244187326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05064087053177416</v>
+        <v>0.0505628545914512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08242175878293732</v>
+        <v>0.08049488081474773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -7321,19 +7321,19 @@
         <v>242380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210676</v>
+        <v>209980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279583</v>
+        <v>281772</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1145618347992911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09957694982617163</v>
+        <v>0.09924778457119554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1321457346038267</v>
+        <v>0.1331804346756448</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>429608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>393684</v>
+        <v>393775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467152</v>
+        <v>464669</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4106408565403486</v>
+        <v>0.4106408565403487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3763036613986804</v>
+        <v>0.3763898575739716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4465275561347249</v>
+        <v>0.4441540520025795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>787</v>
@@ -7371,19 +7371,19 @@
         <v>535871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>505644</v>
+        <v>503786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>563967</v>
+        <v>563807</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.501036832938487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4727748005797325</v>
+        <v>0.4710371544410617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5273059970064826</v>
+        <v>0.5271565571939352</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1224</v>
@@ -7392,19 +7392,19 @@
         <v>965479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>918068</v>
+        <v>918642</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1006259</v>
+        <v>1010999</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4563373962830777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4339280013586702</v>
+        <v>0.4341994376189686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4756122042040881</v>
+        <v>0.4778525482564059</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>347265</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>314225</v>
+        <v>317016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>379248</v>
+        <v>379593</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3319332710731419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3003519367528285</v>
+        <v>0.3030200373442235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3625046218763919</v>
+        <v>0.3628347047089215</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>581</v>
@@ -7442,19 +7442,19 @@
         <v>410881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>384431</v>
+        <v>383046</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>444632</v>
+        <v>438800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.384171083249144</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3594406468381516</v>
+        <v>0.3581458260070779</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.415728434217206</v>
+        <v>0.4102751471849176</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>914</v>
@@ -7463,19 +7463,19 @@
         <v>758146</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>717450</v>
+        <v>714658</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>799585</v>
+        <v>801763</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3583402789432739</v>
+        <v>0.3583402789432738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3391053915508086</v>
+        <v>0.3377858127371012</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3779269124701345</v>
+        <v>0.3789562730530907</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>99142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78775</v>
+        <v>78170</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124337</v>
+        <v>123785</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1236270523922079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09823042874906376</v>
+        <v>0.09747620777534867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1550445687107033</v>
+        <v>0.154355919861194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -7588,19 +7588,19 @@
         <v>58299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45287</v>
+        <v>44593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76201</v>
+        <v>72702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07202333368146568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05594764025026776</v>
+        <v>0.05509013283866455</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09413957317417664</v>
+        <v>0.08981582435936629</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -7609,19 +7609,19 @@
         <v>157441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130630</v>
+        <v>132320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>184078</v>
+        <v>187955</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09770499532440957</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08106657991691066</v>
+        <v>0.08211496823527319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1142348789769087</v>
+        <v>0.1166414342329876</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>90818</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69341</v>
+        <v>69206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>117454</v>
+        <v>116303</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1132473540976237</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08646672899300249</v>
+        <v>0.08629814946514495</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1464612434623245</v>
+        <v>0.1450266917970091</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>56</v>
@@ -7659,19 +7659,19 @@
         <v>47493</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35290</v>
+        <v>35417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62683</v>
+        <v>62915</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05867254067462241</v>
+        <v>0.0586725406746224</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04359731357288441</v>
+        <v>0.04375474094850231</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07743867977200086</v>
+        <v>0.07772565905983263</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>114</v>
@@ -7680,19 +7680,19 @@
         <v>138311</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>113557</v>
+        <v>114223</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>169757</v>
+        <v>167169</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08583282926569542</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07047095724219252</v>
+        <v>0.07088455328483603</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1053476234846057</v>
+        <v>0.103742009814024</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>330748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298375</v>
+        <v>301493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>364282</v>
+        <v>363428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4124329850864545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3720649072890918</v>
+        <v>0.375953246343159</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4542486669859722</v>
+        <v>0.4531834817510075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>443</v>
@@ -7730,19 +7730,19 @@
         <v>340075</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314915</v>
+        <v>313687</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>367146</v>
+        <v>368611</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4201309519999853</v>
+        <v>0.4201309519999855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3890478051775086</v>
+        <v>0.3875299843287513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4535746750924635</v>
+        <v>0.4553839541067641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>735</v>
@@ -7751,19 +7751,19 @@
         <v>670824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>630329</v>
+        <v>633718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>713416</v>
+        <v>715213</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4162998989954522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3911694949415345</v>
+        <v>0.3932727210937332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4427317863212646</v>
+        <v>0.4438472014231197</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>281236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>252089</v>
+        <v>252379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>309991</v>
+        <v>311127</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3506926084237139</v>
+        <v>0.3506926084237137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3143472057468418</v>
+        <v>0.3147091084682991</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3865488175622115</v>
+        <v>0.387966584910395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>477</v>
@@ -7801,19 +7801,19 @@
         <v>363584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>336941</v>
+        <v>334667</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388943</v>
+        <v>388358</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4491731736439264</v>
+        <v>0.4491731736439265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4162588240795465</v>
+        <v>0.413449305748123</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4805017585426024</v>
+        <v>0.4797789193596968</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>730</v>
@@ -7822,19 +7822,19 @@
         <v>644819</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>607425</v>
+        <v>608060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>686628</v>
+        <v>686578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4001622764144428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3769561617599381</v>
+        <v>0.3773503221998984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.426107897253884</v>
+        <v>0.4260770724109272</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>188017</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158874</v>
+        <v>162070</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>217526</v>
+        <v>221716</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1904876464968641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1609617546051234</v>
+        <v>0.1642001576732739</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2203848087759351</v>
+        <v>0.2246294213919749</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -7947,19 +7947,19 @@
         <v>126752</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110240</v>
+        <v>108084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148791</v>
+        <v>145690</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.113706941971626</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09889499526028767</v>
+        <v>0.0969602627872482</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1334780537965764</v>
+        <v>0.1306961678380238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>319</v>
@@ -7968,19 +7968,19 @@
         <v>314768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>282049</v>
+        <v>282042</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>355691</v>
+        <v>352248</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1497648833756557</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1341974386791863</v>
+        <v>0.1341940022995239</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1692354769757675</v>
+        <v>0.1675976327839954</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>103090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83179</v>
+        <v>84094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127277</v>
+        <v>127901</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1044445477628419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08427229034791468</v>
+        <v>0.0851989784767435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1289498444818561</v>
+        <v>0.1295819782104323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>70</v>
@@ -8018,19 +8018,19 @@
         <v>61159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47576</v>
+        <v>47948</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79684</v>
+        <v>78359</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05486504191453799</v>
+        <v>0.054865041914538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04268000690951107</v>
+        <v>0.04301375370309336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07148316577152417</v>
+        <v>0.07029436958948367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>162</v>
@@ -8039,19 +8039,19 @@
         <v>164249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>139463</v>
+        <v>139445</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194877</v>
+        <v>192929</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07814869016670081</v>
+        <v>0.07814869016670084</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06635572422291811</v>
+        <v>0.0663472042729908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09272152729351051</v>
+        <v>0.09179441464823745</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>415116</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>383791</v>
+        <v>383670</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>448850</v>
+        <v>449505</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4205712077150369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3888342300751229</v>
+        <v>0.388712161946097</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4547485507275043</v>
+        <v>0.4554117980067012</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>692</v>
@@ -8089,19 +8089,19 @@
         <v>475117</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>443308</v>
+        <v>447702</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>504099</v>
+        <v>505461</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4262207772320642</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3976849371590606</v>
+        <v>0.4016267362576427</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4522200945666289</v>
+        <v>0.4534416334766445</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1144</v>
@@ -8110,19 +8110,19 @@
         <v>890233</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>848966</v>
+        <v>846043</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>934796</v>
+        <v>933248</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4235676126399627</v>
+        <v>0.4235676126399628</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4039328570071742</v>
+        <v>0.4025422056261887</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4447703320704134</v>
+        <v>0.4440335773424721</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>280806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>250499</v>
+        <v>252819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>311047</v>
+        <v>309490</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2844965980252569</v>
+        <v>0.284496598025257</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2537913148348402</v>
+        <v>0.2561417230502625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3151341659979214</v>
+        <v>0.3135573515080505</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>630</v>
@@ -8160,19 +8160,19 @@
         <v>451693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>423092</v>
+        <v>423127</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>479651</v>
+        <v>482266</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4052072388817719</v>
+        <v>0.4052072388817718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3795497853966552</v>
+        <v>0.37958074201701</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.430287616430761</v>
+        <v>0.4326340769312395</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>934</v>
@@ -8181,19 +8181,19 @@
         <v>732499</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>690706</v>
+        <v>689625</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>775630</v>
+        <v>771711</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3485188138176805</v>
+        <v>0.3485188138176807</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3286336366736936</v>
+        <v>0.3281195522893967</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3690399007451441</v>
+        <v>0.3671754782449033</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>427915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>379960</v>
+        <v>383514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>478699</v>
+        <v>479530</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1214703423606737</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.107857704552123</v>
+        <v>0.1088662926373118</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1358861527418696</v>
+        <v>0.1361221434341268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>330</v>
@@ -8306,19 +8306,19 @@
         <v>261409</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>231991</v>
+        <v>233550</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>292113</v>
+        <v>292374</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07015746672110378</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06226221969139514</v>
+        <v>0.06268054944689727</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07839794003743461</v>
+        <v>0.07846783514504954</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>661</v>
@@ -8327,19 +8327,19 @@
         <v>689324</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>639884</v>
+        <v>634244</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>747898</v>
+        <v>749047</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0950945671108067</v>
+        <v>0.09509456711080669</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08827415246268717</v>
+        <v>0.08749605684962999</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1031750277168135</v>
+        <v>0.1033336323077529</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>447172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>401941</v>
+        <v>399347</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>503278</v>
+        <v>497395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1269366199535153</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1140971520531434</v>
+        <v>0.1133607545973292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1428632890867667</v>
+        <v>0.1411934358741474</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>279</v>
@@ -8377,19 +8377,19 @@
         <v>233617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>205673</v>
+        <v>207486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>265222</v>
+        <v>264955</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06269857075234514</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05519895965874422</v>
+        <v>0.05568559850910799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07118095212005766</v>
+        <v>0.07110916507744038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>619</v>
@@ -8398,19 +8398,19 @@
         <v>680788</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>620995</v>
+        <v>624745</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>737660</v>
+        <v>740212</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09391706439164808</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08566837758939935</v>
+        <v>0.08618569003645581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1017627213352392</v>
+        <v>0.1021147397255646</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1469402</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1403545</v>
+        <v>1405527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1532654</v>
+        <v>1533128</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4171127348377002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3984182371537621</v>
+        <v>0.3989807553951411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4350677855312697</v>
+        <v>0.4352022226222663</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2575</v>
@@ -8448,19 +8448,19 @@
         <v>1722176</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1661158</v>
+        <v>1665854</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1773681</v>
+        <v>1775295</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4622010736550757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4458250902347469</v>
+        <v>0.4470855130980252</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4760241227168263</v>
+        <v>0.4764573292612923</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4110</v>
@@ -8469,19 +8469,19 @@
         <v>3191578</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3108457</v>
+        <v>3102769</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3282247</v>
+        <v>3273620</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4402889820507851</v>
+        <v>0.440288982050785</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4288222280052479</v>
+        <v>0.4280375020228891</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4527970676397942</v>
+        <v>0.4516069968208009</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>1178305</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.334480302848111</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2167</v>
@@ -8519,19 +8519,19 @@
         <v>1508830</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3328</v>
@@ -8540,19 +8540,19 @@
         <v>2687135</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3706993864467603</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="28">
